--- a/syndirella/tests/profiling/profiling_results.xlsx
+++ b/syndirella/tests/profiling/profiling_results.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kate_fieseler/PycharmProjects/syndirella/syndirella/tests/profiling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E2D292-6010-9D43-807B-1142B42CF662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA332B9F-F944-0545-BF7A-7AEE127EE207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="9900" windowWidth="21600" windowHeight="17440" xr2:uid="{ADB9960A-57E3-8E42-9989-339E19E8D1D6}"/>
+    <workbookView xWindow="8460" yWindow="2280" windowWidth="21600" windowHeight="17440" activeTab="1" xr2:uid="{ADB9960A-57E3-8E42-9989-339E19E8D1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>base1</t>
   </si>
@@ -363,6 +364,24 @@
       </rPr>
       <t>(find_products_from_reactants)</t>
     </r>
+  </si>
+  <si>
+    <t>base1_3GB (76044)</t>
+  </si>
+  <si>
+    <t>num_cpus</t>
+  </si>
+  <si>
+    <t>base1_5GB (76045)</t>
+  </si>
+  <si>
+    <t>mem_GB</t>
+  </si>
+  <si>
+    <t>base1_10GB (76046)</t>
+  </si>
+  <si>
+    <t>base1_8CPUs (76047)</t>
   </si>
 </sst>
 </file>
@@ -751,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF35BDC0-40E5-AA4B-958C-D028FCD9E770}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -999,4 +1018,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C847FA-E231-B74F-88FD-9D838C3980B5}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/syndirella/tests/profiling/profiling_results.xlsx
+++ b/syndirella/tests/profiling/profiling_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kate_fieseler/PycharmProjects/syndirella/syndirella/tests/profiling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA332B9F-F944-0545-BF7A-7AEE127EE207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51BA8A8-DACA-2446-A22C-D3B3539A9C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="2280" windowWidth="21600" windowHeight="17440" activeTab="1" xr2:uid="{ADB9960A-57E3-8E42-9989-339E19E8D1D6}"/>
+    <workbookView xWindow="7820" yWindow="2780" windowWidth="21600" windowHeight="17440" activeTab="1" xr2:uid="{ADB9960A-57E3-8E42-9989-339E19E8D1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>base1</t>
   </si>
@@ -382,13 +382,22 @@
   </si>
   <si>
     <t>base1_8CPUs (76047)</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>base1_3GB (76048)</t>
+  </si>
+  <si>
+    <t>base1_5GB (76049)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -408,6 +417,12 @@
       <color rgb="FF871094"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -430,10 +445,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="47" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C847FA-E231-B74F-88FD-9D838C3980B5}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1034,23 +1050,30 @@
     <col min="2" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1064,10 +1087,16 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1075,13 +1104,19 @@
         <v>3</v>
       </c>
       <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1089,13 +1124,42 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
         <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6.8109606481481476E-3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.9717708333333333E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.7581249999999993E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5.4879398148148153E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.6574768518518519E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.2613310185185185E-3</v>
       </c>
     </row>
   </sheetData>
